--- a/data/trans_media/dukeGLOBAL-Provincia-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Provincia-trans_media.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,89; 76,2</t>
+          <t>70,6; 76,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,14; 83,75</t>
+          <t>79,2; 83,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,44; 91,45</t>
+          <t>88,25; 91,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,59; 71,51</t>
+          <t>65,87; 71,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,05; 82,4</t>
+          <t>78,0; 82,43</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,29; 89,68</t>
+          <t>87,29; 89,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,06; 73,17</t>
+          <t>68,96; 73,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,25; 82,42</t>
+          <t>79,36; 82,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>88,22; 90,12</t>
+          <t>88,26; 90,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,5; 84,17</t>
+          <t>80,58; 84,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,61; 87,08</t>
+          <t>83,79; 87,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,77; 80,48</t>
+          <t>77,9; 80,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,04; 87,15</t>
+          <t>83,96; 87,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,84; 79,79</t>
+          <t>75,81; 80,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>83,09; 86,32</t>
+          <t>82,82; 86,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,67; 80,34</t>
+          <t>77,74; 80,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,46; 87,01</t>
+          <t>84,41; 87,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,66; 81,52</t>
+          <t>78,56; 81,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 86,23</t>
+          <t>83,87; 86,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,23; 80,16</t>
+          <t>78,3; 80,21</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>84,63; 86,7</t>
+          <t>84,66; 86,65</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,89; 89,43</t>
+          <t>86,06; 89,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,55; 89,75</t>
+          <t>86,42; 89,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,25; 84,47</t>
+          <t>81,23; 84,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,25; 90,89</t>
+          <t>87,3; 90,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>85,94; 89,46</t>
+          <t>86,12; 89,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,34; 86,75</t>
+          <t>83,29; 86,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,91; 83,16</t>
+          <t>80,05; 83,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>86,36; 89,38</t>
+          <t>86,57; 89,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,73; 89,0</t>
+          <t>86,62; 89,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,46; 87,8</t>
+          <t>85,4; 87,77</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>81,03; 83,39</t>
+          <t>80,94; 83,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>87,35; 89,59</t>
+          <t>87,38; 89,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>82,01; 85,32</t>
+          <t>81,94; 85,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,29; 86,93</t>
+          <t>84,01; 86,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,62; 90,51</t>
+          <t>86,79; 90,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,72; 93,16</t>
+          <t>89,08; 93,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,01; 83,77</t>
+          <t>80,1; 83,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,77; 83,08</t>
+          <t>79,81; 83,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,75; 89,69</t>
+          <t>85,46; 89,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,82; 92,38</t>
+          <t>88,87; 92,43</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,53; 84,09</t>
+          <t>81,6; 84,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,45; 84,63</t>
+          <t>82,54; 84,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,81; 89,62</t>
+          <t>86,64; 89,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>89,46; 92,41</t>
+          <t>89,56; 92,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,25; 81,94</t>
+          <t>76,49; 82,07</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,06; 89,38</t>
+          <t>84,78; 89,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,2; 84,23</t>
+          <t>80,03; 84,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>74,54; 78,33</t>
+          <t>74,5; 78,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,26; 79,34</t>
+          <t>74,33; 79,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,86; 84,9</t>
+          <t>80,45; 84,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,35; 84,78</t>
+          <t>81,49; 84,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,51; 78,38</t>
+          <t>75,47; 78,38</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,33; 80,03</t>
+          <t>76,26; 79,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,09; 86,41</t>
+          <t>83,35; 86,62</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,32; 84,1</t>
+          <t>81,34; 84,02</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,59; 77,91</t>
+          <t>75,4; 77,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,66; 86,26</t>
+          <t>82,52; 86,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,6; 88,39</t>
+          <t>84,75; 88,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,16; 85,11</t>
+          <t>81,16; 85,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>86,57; 90,37</t>
+          <t>86,84; 90,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,57; 83,0</t>
+          <t>78,71; 83,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,21; 85,88</t>
+          <t>82,02; 85,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,78; 82,56</t>
+          <t>77,73; 82,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>87,11; 90,32</t>
+          <t>86,94; 90,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,23; 84,15</t>
+          <t>81,23; 84,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>83,98; 86,66</t>
+          <t>84,0; 86,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>79,98; 83,1</t>
+          <t>80,12; 83,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,44; 89,93</t>
+          <t>87,39; 89,86</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,93; 89,65</t>
+          <t>86,95; 89,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,27; 88,01</t>
+          <t>85,44; 88,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,88; 80,57</t>
+          <t>77,85; 80,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,55; 87,32</t>
+          <t>84,56; 87,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,93; 88,8</t>
+          <t>86,0; 88,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,39; 86,75</t>
+          <t>84,47; 86,83</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,1; 79,69</t>
+          <t>77,13; 79,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>84,15; 86,55</t>
+          <t>84,14; 86,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,93; 88,87</t>
+          <t>86,93; 88,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>85,28; 86,97</t>
+          <t>85,31; 86,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>77,84; 79,72</t>
+          <t>77,78; 79,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>84,77; 86,63</t>
+          <t>84,88; 86,66</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>80,07; 82,33</t>
+          <t>79,93; 82,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,04; 81,16</t>
+          <t>79,05; 81,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,33; 81,23</t>
+          <t>79,26; 81,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>75,0; 81,48</t>
+          <t>75,1; 81,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,23; 79,53</t>
+          <t>77,22; 79,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>79,45; 81,54</t>
+          <t>79,51; 81,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>78,11; 80,07</t>
+          <t>78,22; 80,14</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,13; 74,79</t>
+          <t>72,2; 74,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,97; 80,68</t>
+          <t>78,97; 80,58</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>79,63; 81,11</t>
+          <t>79,55; 81,07</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>79,0; 80,33</t>
+          <t>79,01; 80,39</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>74,05; 77,61</t>
+          <t>74,01; 78,04</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>82,53; 83,83</t>
+          <t>82,57; 83,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>84,47; 85,6</t>
+          <t>84,41; 85,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>81,04; 82,11</t>
+          <t>80,96; 82,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>83,65; 85,27</t>
+          <t>83,74; 85,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>80,08; 81,45</t>
+          <t>79,98; 81,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,61; 83,71</t>
+          <t>82,64; 83,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,1; 81,25</t>
+          <t>80,07; 81,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>82,85; 84,0</t>
+          <t>82,76; 83,94</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>81,45; 82,39</t>
+          <t>81,51; 82,41</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>83,65; 84,49</t>
+          <t>83,67; 84,53</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80,7; 81,51</t>
+          <t>80,71; 81,47</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>83,44; 84,44</t>
+          <t>83,47; 84,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/dukeGLOBAL-Provincia-trans_media.xlsx
+++ b/data/trans_media/dukeGLOBAL-Provincia-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,6; 76,19</t>
+          <t>70,69; 76,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,2; 83,5</t>
+          <t>79,31; 83,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,87; 71,46</t>
+          <t>65,89; 71,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,0; 82,43</t>
+          <t>77,95; 82,34</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,96; 73,11</t>
+          <t>68,99; 73,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,36; 82,46</t>
+          <t>79,29; 82,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,58; 84,23</t>
+          <t>80,33; 84,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>83,79; 87,03</t>
+          <t>83,68; 87,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,9; 80,5</t>
+          <t>77,95; 80,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>75,81; 80,01</t>
+          <t>75,58; 79,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,82; 86,3</t>
+          <t>82,84; 86,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>77,74; 80,48</t>
+          <t>77,79; 80,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>78,56; 81,46</t>
+          <t>78,58; 81,53</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83,87; 86,25</t>
+          <t>83,92; 86,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>78,3; 80,21</t>
+          <t>78,27; 80,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,06; 89,62</t>
+          <t>86,18; 89,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,42; 89,69</t>
+          <t>86,47; 89,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>81,23; 84,6</t>
+          <t>81,09; 84,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>86,12; 89,5</t>
+          <t>85,97; 89,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,29; 86,68</t>
+          <t>83,33; 86,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80,05; 83,31</t>
+          <t>80,03; 83,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>86,62; 89,0</t>
+          <t>86,53; 88,95</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>85,4; 87,77</t>
+          <t>85,36; 87,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>80,94; 83,37</t>
+          <t>80,99; 83,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>81,94; 85,23</t>
+          <t>81,87; 85,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,01; 86,82</t>
+          <t>84,14; 86,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,79; 90,68</t>
+          <t>86,78; 90,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,1; 83,88</t>
+          <t>80,14; 84,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,81; 83,02</t>
+          <t>79,77; 83,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>85,46; 89,64</t>
+          <t>85,64; 89,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>81,6; 84,18</t>
+          <t>81,72; 84,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>82,54; 84,56</t>
+          <t>82,38; 84,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>86,64; 89,53</t>
+          <t>86,81; 89,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,49; 82,07</t>
+          <t>76,52; 82,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>84,78; 89,21</t>
+          <t>85,06; 89,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>80,03; 84,19</t>
+          <t>80,01; 84,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>74,33; 79,23</t>
+          <t>74,1; 79,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,45; 84,86</t>
+          <t>80,37; 85,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,49; 84,98</t>
+          <t>81,12; 84,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>76,26; 79,92</t>
+          <t>76,21; 80,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>83,35; 86,62</t>
+          <t>83,24; 86,53</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>81,34; 84,02</t>
+          <t>81,24; 84,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>82,52; 86,3</t>
+          <t>82,66; 86,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,75; 88,71</t>
+          <t>84,8; 88,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,16; 85,21</t>
+          <t>80,97; 85,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78,71; 83,1</t>
+          <t>78,4; 83,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,02; 85,93</t>
+          <t>82,16; 85,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>77,73; 82,44</t>
+          <t>77,59; 82,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>81,23; 84,21</t>
+          <t>81,34; 84,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>84,0; 86,68</t>
+          <t>84,04; 86,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>80,12; 83,12</t>
+          <t>79,99; 83,15</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>86,95; 89,65</t>
+          <t>86,99; 89,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85,44; 88,09</t>
+          <t>85,41; 88,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>77,85; 80,39</t>
+          <t>77,91; 80,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>86,0; 88,83</t>
+          <t>85,8; 88,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>84,47; 86,83</t>
+          <t>84,5; 86,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,13; 79,7</t>
+          <t>77,26; 79,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>86,93; 88,81</t>
+          <t>86,89; 88,89</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>85,31; 86,98</t>
+          <t>85,25; 87,09</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>77,78; 79,65</t>
+          <t>77,91; 79,73</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>79,93; 82,28</t>
+          <t>79,94; 82,25</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>79,05; 81,21</t>
+          <t>79,14; 81,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>79,26; 81,16</t>
+          <t>79,25; 81,12</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>77,22; 79,52</t>
+          <t>77,22; 79,62</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>79,51; 81,58</t>
+          <t>79,53; 81,56</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>78,22; 80,14</t>
+          <t>78,05; 80,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>78,97; 80,58</t>
+          <t>78,92; 80,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>79,55; 81,07</t>
+          <t>79,62; 81,06</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>79,01; 80,39</t>
+          <t>78,96; 80,32</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>82,57; 83,83</t>
+          <t>82,53; 83,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>84,41; 85,59</t>
+          <t>84,43; 85,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>80,96; 82,08</t>
+          <t>81,0; 82,13</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>79,98; 81,34</t>
+          <t>80,01; 81,35</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>82,64; 83,8</t>
+          <t>82,61; 83,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>80,07; 81,16</t>
+          <t>80,03; 81,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>81,51; 82,41</t>
+          <t>81,46; 82,4</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>83,67; 84,53</t>
+          <t>83,69; 84,51</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>80,71; 81,47</t>
+          <t>80,69; 81,49</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
